--- a/CUPS文件夹构成.xlsx
+++ b/CUPS文件夹构成.xlsx
@@ -1,58 +1,600 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Knowledge\CUPS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9555" activeTab="2"/>
+    <workbookView windowWidth="27975" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="exec_prefix" sheetId="1" r:id="rId1"/>
     <sheet name="prefix" sheetId="3" r:id="rId2"/>
     <sheet name="usr" sheetId="4" r:id="rId3"/>
+    <sheet name="Gutenprint" sheetId="5" r:id="rId4"/>
+    <sheet name="cups-browsed" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <r>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="18"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.linuxfromscratch.org/blfs/view/svn/pst/gutenprint.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <r>
+      <t>Installed Programs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> cups-calibrate, cups-genppd.5.2, cups-genppdupdate, escputil, and testpattern</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Installed Libraries:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> libgutenprint.so, libgutenprintui2.so and optionally, various CUPS filters and backend drivers under /usr/lib/gutenprint/5.2/modules/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Installed Directories:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> /usr/{include,lib,share}/gutenprint, /usr/include/gutenprintui2 and /usr/share/doc/gutenprint-5.3.4</t>
+    </r>
+  </si>
+  <si>
+    <t>Short Descriptions</t>
+  </si>
+  <si>
+    <t>cups-calibrate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">calibrates the color output of printers using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gutenprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CUPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ESP Print Pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> drivers</t>
+    </r>
+  </si>
+  <si>
+    <t>cups-genppd.5.2</t>
+  </si>
+  <si>
+    <t>generates Gutenprint PPD files for use with CUPS</t>
+  </si>
+  <si>
+    <t>cups-genppdupdate</t>
+  </si>
+  <si>
+    <t>regenerates the Gutenprint PPD files in use by CUPS</t>
+  </si>
+  <si>
+    <t>escputil</t>
+  </si>
+  <si>
+    <t>is a command line utility to perform various maintenance tasks on Epson Stylus inkjet printers</t>
+  </si>
+  <si>
+    <t>testpattern</t>
+  </si>
+  <si>
+    <t>is a test program to learn how to use libgutenprint</t>
+  </si>
+  <si>
+    <t>/sbin/cups-browsed</t>
+  </si>
+  <si>
+    <t>/etc/cups/cups-browsed.conf</t>
+  </si>
+  <si>
+    <t>CUPS 服务器会定期在网络上公告共享打印机的可用性及状态信息。客户端可以访问此信息，以便在打印对话框中显示可用打印机列表。此过程称为「浏览」。
+CUPS 服务器通过传统的 CUPS 浏览协议或 Bonjour/DND-SD 在网络上公告它们的打印队列。为了能够浏览网络打印队列，通过 CUPS 服务器打印的所有客户端上都需要运行 cups-browsed 服务。默认情况下，cups-browsed 不会启动。要为活动会话启动它，请使用 sudo systemctl start cups-browsed。要确保它在系统引导后自动启动，请在所有客户端上使用 sudo systemctl enable cups-browsed 启用它。
+如果在启动 cups-browsed 之后浏览不起作用，则表明 CUPS 服务器可能是通过 Bonjour/DND-SD 公告网络打印队列的。在此情况下，您需要另外安装 avahi 包，并在所有客户端上使用 sudo systemctl start avahi-daemon 启动关联的服务</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.05"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,40 +602,347 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF0000FF"/>
+      <color rgb="000000FF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -107,15 +956,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="圆角矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="2486025"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="714375" y="3276600"/>
+          <a:ext cx="1085850" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -168,15 +1017,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="圆角矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="295275"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="2409825" y="742950"/>
+          <a:ext cx="1162050" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -210,6 +1059,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>bin</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -236,7 +1086,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="肘形连接符 5"/>
         <xdr:cNvCxnSpPr>
@@ -245,9 +1095,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2047875" y="576263"/>
-          <a:ext cx="704850" cy="2190750"/>
+        <a:xfrm flipV="true">
+          <a:off x="1800225" y="1080770"/>
+          <a:ext cx="609600" cy="2533650"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -284,15 +1134,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="圆角矩形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2733675" y="2390775"/>
-          <a:ext cx="1247775" cy="733425"/>
+          <a:off x="2400300" y="3181350"/>
+          <a:ext cx="1152525" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -326,6 +1176,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>sbin</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -352,7 +1203,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="肘形连接符 8"/>
         <xdr:cNvCxnSpPr>
@@ -361,9 +1212,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2047875" y="2757488"/>
-          <a:ext cx="685800" cy="9525"/>
+        <a:xfrm flipV="true">
+          <a:off x="1800225" y="3604895"/>
+          <a:ext cx="600075" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -400,15 +1251,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="圆角矩形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="4610100"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="2409825" y="5743575"/>
+          <a:ext cx="1162050" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -442,6 +1293,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>lib</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -468,7 +1320,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="肘形连接符 16"/>
         <xdr:cNvCxnSpPr>
@@ -478,8 +1330,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="2767013"/>
-          <a:ext cx="704850" cy="2124075"/>
+          <a:off x="1800225" y="3614420"/>
+          <a:ext cx="609600" cy="2466975"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -518,15 +1370,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="1075" name="流程图: 文档 1074"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="390525"/>
-          <a:ext cx="1724025" cy="1524000"/>
+          <a:off x="3905250" y="447675"/>
+          <a:ext cx="1495425" cy="1752600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -590,15 +1442,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="127" name="流程图: 文档 126"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410075" y="1895475"/>
-          <a:ext cx="1724025" cy="1619250"/>
+          <a:off x="3895725" y="2600325"/>
+          <a:ext cx="1504950" cy="1876425"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -644,7 +1496,6 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -771,6 +1622,15 @@
             </a:rPr>
             <a:t>cupsaccept</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -841,15 +1701,15 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="132" name="圆角矩形 131"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4714875" y="3990975"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="4200525" y="4619625"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -883,6 +1743,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cups</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -901,7 +1762,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="133" name="肘形连接符 132"/>
         <xdr:cNvCxnSpPr>
@@ -910,9 +1771,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4000500" y="4271963"/>
-          <a:ext cx="714375" cy="981075"/>
+        <a:xfrm flipV="true">
+          <a:off x="3571875" y="4928870"/>
+          <a:ext cx="628650" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -951,15 +1812,15 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="136" name="流程图: 文档 135"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124325" y="5353050"/>
-          <a:ext cx="1724025" cy="1619250"/>
+          <a:off x="3609975" y="6181725"/>
+          <a:ext cx="1552575" cy="1876425"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1005,7 +1866,6 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -1016,6 +1876,11 @@
             </a:rPr>
             <a:t>libcups.so.2</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1032,7 +1897,6 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -1043,6 +1907,11 @@
             </a:rPr>
             <a:t>libcupsimage.so.2</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1059,7 +1928,6 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -1094,6 +1962,11 @@
             </a:rPr>
             <a:t>libcups.so.2</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1110,7 +1983,6 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -1133,6 +2005,11 @@
             </a:rPr>
             <a:t>libcupsimage.so.2</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1149,7 +2026,6 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1171,15 +2047,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="138" name="圆角矩形 137"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6829425" y="571500"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6000750" y="657225"/>
+          <a:ext cx="1133475" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1213,6 +2089,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>backend</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1231,15 +2108,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="139" name="圆角矩形 138"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="1771650"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6000750" y="2028825"/>
+          <a:ext cx="1143000" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1273,6 +2150,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cgi-bin</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1291,15 +2169,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="140" name="圆角矩形 139"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6829425" y="3171825"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6000750" y="3657600"/>
+          <a:ext cx="1133475" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1333,6 +2211,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>command</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1351,15 +2230,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="141" name="圆角矩形 140"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="4391025"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6000750" y="5076825"/>
+          <a:ext cx="1143000" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1393,6 +2272,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>daemon</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1411,15 +2291,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="142" name="圆角矩形 141"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6829425" y="8896350"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6000750" y="10296525"/>
+          <a:ext cx="1133475" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1453,6 +2333,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>driver</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1471,15 +2352,15 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="143" name="圆角矩形 142"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6848475" y="6743700"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6000750" y="7800975"/>
+          <a:ext cx="1152525" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1513,6 +2394,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>filter</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1531,15 +2413,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="144" name="圆角矩形 143"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6829425" y="8143875"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6000750" y="9429750"/>
+          <a:ext cx="1133475" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1573,6 +2455,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>monitor</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1591,15 +2474,15 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="145" name="圆角矩形 144"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="5572125"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6000750" y="6429375"/>
+          <a:ext cx="1143000" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1633,6 +2516,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>notifier</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1651,7 +2535,7 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="146" name="肘形连接符 145"/>
         <xdr:cNvCxnSpPr>
@@ -1660,9 +2544,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5962650" y="852488"/>
-          <a:ext cx="866775" cy="3419475"/>
+        <a:xfrm flipV="true">
+          <a:off x="5276850" y="966470"/>
+          <a:ext cx="723900" cy="3962400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1701,7 +2585,7 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="150" name="肘形连接符 149"/>
         <xdr:cNvCxnSpPr>
@@ -1710,9 +2594,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5962650" y="2052638"/>
-          <a:ext cx="876300" cy="2219325"/>
+        <a:xfrm flipV="true">
+          <a:off x="5276850" y="2366645"/>
+          <a:ext cx="723900" cy="2562225"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1751,7 +2635,7 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="153" name="肘形连接符 152"/>
         <xdr:cNvCxnSpPr>
@@ -1760,9 +2644,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5962650" y="3452813"/>
-          <a:ext cx="866775" cy="819150"/>
+        <a:xfrm flipV="true">
+          <a:off x="5276850" y="3995420"/>
+          <a:ext cx="723900" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1801,7 +2685,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="156" name="肘形连接符 155"/>
         <xdr:cNvCxnSpPr>
@@ -1811,8 +2695,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="4271963"/>
-          <a:ext cx="876300" cy="400050"/>
+          <a:off x="5276850" y="4928870"/>
+          <a:ext cx="723900" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1851,7 +2735,7 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="159" name="肘形连接符 158"/>
         <xdr:cNvCxnSpPr>
@@ -1861,8 +2745,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="4271963"/>
-          <a:ext cx="876300" cy="1581150"/>
+          <a:off x="5276850" y="4928870"/>
+          <a:ext cx="723900" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1901,7 +2785,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="162" name="肘形连接符 161"/>
         <xdr:cNvCxnSpPr>
@@ -1911,8 +2795,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="4271963"/>
-          <a:ext cx="885825" cy="2752725"/>
+          <a:off x="5276850" y="4928870"/>
+          <a:ext cx="723900" cy="3181350"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1951,7 +2835,7 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="166" name="肘形连接符 165"/>
         <xdr:cNvCxnSpPr>
@@ -1961,8 +2845,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="4271963"/>
-          <a:ext cx="866775" cy="4152900"/>
+          <a:off x="5276850" y="4928870"/>
+          <a:ext cx="723900" cy="4810125"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2001,7 +2885,7 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="169" name="肘形连接符 168"/>
         <xdr:cNvCxnSpPr>
@@ -2011,8 +2895,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="4271963"/>
-          <a:ext cx="866775" cy="4905375"/>
+          <a:off x="5276850" y="4928870"/>
+          <a:ext cx="723900" cy="5676900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2051,15 +2935,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="190" name="流程图: 文档 189"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8201026" y="123825"/>
-          <a:ext cx="847724" cy="1524000"/>
+          <a:off x="7200900" y="123825"/>
+          <a:ext cx="733425" cy="1781175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2100,6 +2984,11 @@
             </a:rPr>
             <a:t> ipp </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2111,6 +3000,11 @@
             </a:rPr>
             <a:t> lpd</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2122,6 +3016,11 @@
             </a:rPr>
             <a:t> snmp  </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2133,6 +3032,11 @@
             </a:rPr>
             <a:t>socket  </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2144,6 +3048,11 @@
             </a:rPr>
             <a:t>usb</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2160,7 +3069,6 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -2228,15 +3136,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="191" name="流程图: 文档 190"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220074" y="1733550"/>
-          <a:ext cx="904875" cy="1181100"/>
+          <a:off x="7200900" y="1990725"/>
+          <a:ext cx="808990" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2277,6 +3185,11 @@
             </a:rPr>
             <a:t>admin.cgi </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2288,6 +3201,11 @@
             </a:rPr>
             <a:t>classes.cgi</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2299,6 +3217,11 @@
             </a:rPr>
             <a:t>help.cgi </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2310,6 +3233,11 @@
             </a:rPr>
             <a:t>jobs.cgi  </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2321,6 +3249,11 @@
             </a:rPr>
             <a:t>printers.cgi</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2337,7 +3270,6 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -2381,15 +3313,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="192" name="流程图: 文档 191"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239124" y="3171825"/>
-          <a:ext cx="904875" cy="752475"/>
+          <a:off x="7209790" y="3657600"/>
+          <a:ext cx="819150" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2430,6 +3362,11 @@
             </a:rPr>
             <a:t>ippevepcl </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2482,15 +3419,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="193" name="流程图: 文档 192"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239126" y="4343400"/>
-          <a:ext cx="1009650" cy="952500"/>
+          <a:off x="7210425" y="5029200"/>
+          <a:ext cx="923925" cy="1095375"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2531,6 +3468,11 @@
             </a:rPr>
             <a:t>cups-deviced</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2542,6 +3484,11 @@
             </a:rPr>
             <a:t>cups-driverd</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2553,6 +3500,11 @@
             </a:rPr>
             <a:t>cups-exec</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2564,6 +3516,11 @@
             </a:rPr>
             <a:t>cups-lpd</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2590,15 +3547,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="194" name="流程图: 文档 193"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="5534025"/>
-          <a:ext cx="904875" cy="752475"/>
+          <a:off x="7200900" y="6391275"/>
+          <a:ext cx="819150" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2639,6 +3596,11 @@
             </a:rPr>
             <a:t>mailto </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2691,15 +3653,15 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="195" name="流程图: 文档 194"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="6410324"/>
-          <a:ext cx="1047750" cy="1628775"/>
+          <a:off x="7200900" y="7409815"/>
+          <a:ext cx="962025" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2740,6 +3702,11 @@
             </a:rPr>
             <a:t>commandtops </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2751,6 +3718,11 @@
             </a:rPr>
             <a:t>pstops         rastertohp     rastertopwg</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2803,15 +3775,15 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="205" name="流程图: 文档 204"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8248650" y="8143875"/>
-          <a:ext cx="904875" cy="752475"/>
+          <a:off x="7219950" y="9429750"/>
+          <a:ext cx="819150" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2852,6 +3824,11 @@
             </a:rPr>
             <a:t>bcp </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2904,15 +3881,15 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="215" name="圆角矩形 214"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="7105650"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="2409825" y="8220075"/>
+          <a:ext cx="1162050" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2946,6 +3923,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>libexec</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2972,7 +3950,7 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="216" name="肘形连接符 215"/>
         <xdr:cNvCxnSpPr>
@@ -2982,8 +3960,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="3128963"/>
-          <a:ext cx="704850" cy="4257675"/>
+          <a:off x="1800225" y="3614420"/>
+          <a:ext cx="609600" cy="4914900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3013,7 +3991,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3027,15 +4005,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="圆角矩形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="428625" y="4238625"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="428625" y="4895850"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3088,15 +4066,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="圆角矩形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="695325"/>
-          <a:ext cx="1247775" cy="733425"/>
+          <a:off x="2667000" y="781050"/>
+          <a:ext cx="1076325" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3130,6 +4108,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>share</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -3156,7 +4135,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="肘形连接符 11"/>
         <xdr:cNvCxnSpPr>
@@ -3165,9 +4144,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1676400" y="1062038"/>
-          <a:ext cx="1333500" cy="3457575"/>
+        <a:xfrm flipV="true">
+          <a:off x="1504950" y="1204595"/>
+          <a:ext cx="1162050" cy="4000500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3204,15 +4183,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="圆角矩形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="4429125"/>
-          <a:ext cx="1247775" cy="762000"/>
+          <a:off x="2657475" y="5114925"/>
+          <a:ext cx="1076325" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3246,6 +4225,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>etc</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -3272,7 +4252,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="肘形连接符 13"/>
         <xdr:cNvCxnSpPr>
@@ -3282,8 +4262,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="4519613"/>
-          <a:ext cx="1323975" cy="290512"/>
+          <a:off x="1504950" y="5205095"/>
+          <a:ext cx="1152525" cy="347980"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3320,15 +4300,15 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="圆角矩形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="12782549"/>
-          <a:ext cx="1247775" cy="885825"/>
+          <a:off x="2667000" y="14782165"/>
+          <a:ext cx="1076325" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3362,6 +4342,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>com</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -3388,7 +4369,7 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="肘形连接符 15"/>
         <xdr:cNvCxnSpPr>
@@ -3398,8 +4379,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="4519613"/>
-          <a:ext cx="1333500" cy="8705849"/>
+          <a:off x="1504950" y="5205095"/>
+          <a:ext cx="1162050" cy="10106025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3436,15 +4417,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="圆角矩形 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="9725025"/>
-          <a:ext cx="1247775" cy="695325"/>
+          <a:off x="2667000" y="11239500"/>
+          <a:ext cx="1076325" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3478,6 +4459,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>var</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -3504,7 +4486,7 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="肘形连接符 17"/>
         <xdr:cNvCxnSpPr>
@@ -3514,8 +4496,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="4519613"/>
-          <a:ext cx="1333500" cy="5553075"/>
+          <a:off x="1504950" y="5205095"/>
+          <a:ext cx="1162050" cy="6438900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3554,15 +4536,15 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="圆角矩形 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990850" y="8039100"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="2647950" y="9296400"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3596,6 +4578,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>include</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -3622,7 +4605,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="肘形连接符 19"/>
         <xdr:cNvCxnSpPr>
@@ -3632,8 +4615,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="4519613"/>
-          <a:ext cx="1314450" cy="3800475"/>
+          <a:off x="1504950" y="5205095"/>
+          <a:ext cx="1143000" cy="4400550"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3672,15 +4655,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="圆角矩形 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5114925" y="1295400"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="4514850" y="1495425"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3714,6 +4697,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>info</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -3740,15 +4724,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="圆角矩形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5124450" y="2686050"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="4524375" y="3086100"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3782,6 +4766,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>locale</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -3808,15 +4793,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="圆角矩形 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5105400" y="3724275"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="4505325" y="4295775"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3850,6 +4835,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>man</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -3876,15 +4862,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="圆角矩形 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5114925" y="533400"/>
-          <a:ext cx="1247775" cy="695325"/>
+          <a:off x="4514850" y="590550"/>
+          <a:ext cx="1076325" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3918,6 +4904,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>doc</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -3944,15 +4931,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="圆角矩形 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7191375" y="533400"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6334125" y="590550"/>
+          <a:ext cx="1076325" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3986,6 +4973,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cups</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -4012,7 +5000,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="肘形连接符 28"/>
         <xdr:cNvCxnSpPr>
@@ -4021,9 +5009,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4257675" y="881063"/>
-          <a:ext cx="857250" cy="180975"/>
+        <a:xfrm flipV="true">
+          <a:off x="3743325" y="995045"/>
+          <a:ext cx="771525" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4062,7 +5050,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="肘形连接符 29"/>
         <xdr:cNvCxnSpPr>
@@ -4072,8 +5060,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="1062038"/>
-          <a:ext cx="857250" cy="514350"/>
+          <a:off x="3743325" y="1204595"/>
+          <a:ext cx="771525" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4112,7 +5100,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="肘形连接符 30"/>
         <xdr:cNvCxnSpPr>
@@ -4122,8 +5110,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="1062038"/>
-          <a:ext cx="866775" cy="1905000"/>
+          <a:off x="3743325" y="1204595"/>
+          <a:ext cx="781050" cy="2219325"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4162,7 +5150,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="32" name="肘形连接符 31"/>
         <xdr:cNvCxnSpPr>
@@ -4172,8 +5160,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="1062038"/>
-          <a:ext cx="847725" cy="2943225"/>
+          <a:off x="3743325" y="1204595"/>
+          <a:ext cx="762000" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4212,7 +5200,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="肘形连接符 32"/>
         <xdr:cNvCxnSpPr>
@@ -4221,9 +5209,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6362700" y="814388"/>
-          <a:ext cx="828675" cy="66675"/>
+        <a:xfrm flipV="true">
+          <a:off x="5591175" y="928370"/>
+          <a:ext cx="742950" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4262,15 +5250,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="圆角矩形 40"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076825" y="4533900"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="4476750" y="5248275"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4304,6 +5292,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cups</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4322,7 +5311,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="42" name="肘形连接符 41"/>
         <xdr:cNvCxnSpPr>
@@ -4332,8 +5321,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4248150" y="4810125"/>
-          <a:ext cx="828675" cy="4763"/>
+          <a:off x="3733800" y="5553075"/>
+          <a:ext cx="742950" cy="4445"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4372,15 +5361,15 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="流程图: 文档 45"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6848475" y="4162424"/>
-          <a:ext cx="1762126" cy="1657351"/>
+          <a:off x="6000750" y="4790440"/>
+          <a:ext cx="1581150" cy="1943735"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -4421,6 +5410,11 @@
             </a:rPr>
             <a:t>cupsd.conf</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4432,6 +5426,11 @@
             </a:rPr>
             <a:t>cupsd.conf.default</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4443,6 +5442,11 @@
             </a:rPr>
             <a:t>cups-files.conf</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4454,6 +5458,11 @@
             </a:rPr>
             <a:t>cups-files.conf.default</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4465,6 +5474,11 @@
             </a:rPr>
             <a:t>snmp.conf</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4476,6 +5490,11 @@
             </a:rPr>
             <a:t>snmp.conf.default</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4510,15 +5529,15 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="圆角矩形 46"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7038975" y="6086475"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6181725" y="7029450"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4552,6 +5571,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>PPD</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4570,7 +5590,7 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="48" name="肘形连接符 47"/>
         <xdr:cNvCxnSpPr>
@@ -4580,8 +5600,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="4814888"/>
-          <a:ext cx="714375" cy="1552575"/>
+          <a:off x="5553075" y="5557520"/>
+          <a:ext cx="628650" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4620,15 +5640,15 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="圆角矩形 49"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7029450" y="6838950"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6172200" y="7896225"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4662,6 +5682,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>SSL</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4680,7 +5701,7 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="51" name="肘形连接符 50"/>
         <xdr:cNvCxnSpPr>
@@ -4690,8 +5711,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="4814888"/>
-          <a:ext cx="704850" cy="2305050"/>
+          <a:off x="5553075" y="5557520"/>
+          <a:ext cx="619125" cy="2676525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4730,15 +5751,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="58" name="流程图: 文档 57"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="7629525"/>
-          <a:ext cx="1762126" cy="1895475"/>
+          <a:off x="6000750" y="8829675"/>
+          <a:ext cx="1504950" cy="2181225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -4779,6 +5800,11 @@
             </a:rPr>
             <a:t>adminutil.h  cups.h  </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4806,6 +5832,11 @@
             </a:rPr>
             <a:t>array.h      dir.h   ipp.h   pwg.h     transcode.h</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4817,6 +5848,11 @@
             </a:rPr>
             <a:t>backend.h    file.h  language.h  raster.h  versioning.h</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4843,15 +5879,15 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="63" name="圆角矩形 62"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="8029575"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="4448175" y="9286875"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4885,6 +5921,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cups</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4903,7 +5940,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="64" name="肘形连接符 63"/>
         <xdr:cNvCxnSpPr>
@@ -4912,9 +5949,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4238625" y="8310563"/>
-          <a:ext cx="809625" cy="9525"/>
+        <a:xfrm flipV="true">
+          <a:off x="3724275" y="9596120"/>
+          <a:ext cx="723900" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4953,15 +5990,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="68" name="圆角矩形 67"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5019675" y="9782175"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="4419600" y="11325225"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4995,6 +6032,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cache</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5013,7 +6051,7 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="69" name="肘形连接符 68"/>
         <xdr:cNvCxnSpPr>
@@ -5022,9 +6060,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4257675" y="10063163"/>
-          <a:ext cx="762000" cy="9525"/>
+        <a:xfrm flipV="true">
+          <a:off x="3743325" y="11634470"/>
+          <a:ext cx="676275" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5063,15 +6101,15 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="73" name="圆角矩形 72"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5019675" y="10648950"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="4419600" y="12306300"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5105,6 +6143,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>run</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5123,7 +6162,7 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="74" name="肘形连接符 73"/>
         <xdr:cNvCxnSpPr>
@@ -5133,8 +6172,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="10072688"/>
-          <a:ext cx="762000" cy="857250"/>
+          <a:off x="3743325" y="11643995"/>
+          <a:ext cx="676275" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5173,15 +6212,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="79" name="圆角矩形 78"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5019675" y="11487150"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="4419600" y="13287375"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5215,6 +6254,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>spool</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5233,7 +6273,7 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="80" name="肘形连接符 79"/>
         <xdr:cNvCxnSpPr>
@@ -5243,8 +6283,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="10072688"/>
-          <a:ext cx="762000" cy="1695450"/>
+          <a:off x="3743325" y="11643995"/>
+          <a:ext cx="676275" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5283,15 +6323,15 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="83" name="圆角矩形 82"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5000625" y="12363450"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="4400550" y="14306550"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5325,6 +6365,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>log</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5343,7 +6384,7 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="84" name="肘形连接符 83"/>
         <xdr:cNvCxnSpPr>
@@ -5353,8 +6394,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="10072688"/>
-          <a:ext cx="742950" cy="2571750"/>
+          <a:off x="3743325" y="11643995"/>
+          <a:ext cx="657225" cy="2971800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5393,15 +6434,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="88" name="圆角矩形 87"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6867525" y="9782175"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6010275" y="11325225"/>
+          <a:ext cx="1162050" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5435,6 +6476,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cups</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5453,7 +6495,7 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>122238</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="89" name="肘形连接符 88"/>
         <xdr:cNvCxnSpPr>
@@ -5463,8 +6505,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="10063163"/>
-          <a:ext cx="600075" cy="12700"/>
+          <a:off x="5495925" y="11634470"/>
+          <a:ext cx="514350" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5503,15 +6545,15 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="92" name="圆角矩形 91"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6867525" y="10639425"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6010275" y="12296775"/>
+          <a:ext cx="1162050" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5545,6 +6587,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cups</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5563,7 +6606,7 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="93" name="肘形连接符 92"/>
         <xdr:cNvCxnSpPr>
@@ -5572,9 +6615,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6267450" y="10920413"/>
-          <a:ext cx="600075" cy="9525"/>
+        <a:xfrm flipV="true">
+          <a:off x="5495925" y="12634595"/>
+          <a:ext cx="514350" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5613,15 +6656,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="95" name="圆角矩形 94"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="11515725"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6000750" y="13315950"/>
+          <a:ext cx="1162050" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5655,6 +6698,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cups</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5673,7 +6717,7 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="96" name="肘形连接符 95"/>
         <xdr:cNvCxnSpPr>
@@ -5683,8 +6727,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="11768138"/>
-          <a:ext cx="590550" cy="28575"/>
+          <a:off x="5495925" y="13625195"/>
+          <a:ext cx="504825" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5723,15 +6767,15 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="99" name="圆角矩形 98"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6867525" y="12363450"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6010275" y="14306550"/>
+          <a:ext cx="1162050" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5765,6 +6809,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cups</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5783,7 +6828,7 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>169863</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="100" name="肘形连接符 99"/>
         <xdr:cNvCxnSpPr>
@@ -5793,8 +6838,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248400" y="12644438"/>
-          <a:ext cx="619125" cy="12700"/>
+          <a:off x="5476875" y="14615795"/>
+          <a:ext cx="533400" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5833,15 +6878,15 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="106" name="圆角矩形 105"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8791575" y="13420725"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="7762875" y="15535275"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5875,6 +6920,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>certs</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5893,7 +6939,7 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="107" name="肘形连接符 106"/>
         <xdr:cNvCxnSpPr>
@@ -5903,8 +6949,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8115300" y="10920413"/>
-          <a:ext cx="676275" cy="2781300"/>
+          <a:off x="7172325" y="12634595"/>
+          <a:ext cx="590550" cy="3209925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5943,15 +6989,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="111" name="圆角矩形 110"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5105400" y="1971675"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="4505325" y="2257425"/>
+          <a:ext cx="1076325" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5985,6 +7031,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cups</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6003,7 +7050,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="112" name="肘形连接符 111"/>
         <xdr:cNvCxnSpPr>
@@ -6013,8 +7060,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="1062038"/>
-          <a:ext cx="847725" cy="1190625"/>
+          <a:off x="3743325" y="1204595"/>
+          <a:ext cx="762000" cy="1390650"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6053,15 +7100,15 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="115" name="圆角矩形 114"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11229975" y="1214437"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="9858375" y="1385570"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6095,6 +7142,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>banners</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6113,7 +7161,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="116" name="肘形连接符 115"/>
         <xdr:cNvCxnSpPr>
@@ -6122,9 +7170,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6353175" y="1495425"/>
-          <a:ext cx="4876800" cy="757238"/>
+        <a:xfrm flipV="true">
+          <a:off x="5581650" y="1724025"/>
+          <a:ext cx="4276725" cy="871220"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6163,15 +7211,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="119" name="圆角矩形 118"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11239500" y="2000250"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="9867900" y="2314575"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6205,6 +7253,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>data</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6223,15 +7272,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="120" name="圆角矩形 119"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11229975" y="2762250"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="9858375" y="3190875"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6265,6 +7314,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>drv</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6283,15 +7333,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="123" name="圆角矩形 122"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11249025" y="3543300"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="9877425" y="4086225"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6325,6 +7375,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>examples</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6343,15 +7394,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="124" name="圆角矩形 123"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11249025" y="4276725"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="9877425" y="4933950"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6385,6 +7436,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>ipptool</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6403,15 +7455,15 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="125" name="圆角矩形 124"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11229975" y="8620125"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="9858375" y="9963150"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6445,6 +7497,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>mime</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6463,15 +7516,15 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="126" name="圆角矩形 125"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11220450" y="9382125"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="9848850" y="10839450"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6505,6 +7558,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>model</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6523,15 +7577,15 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="127" name="圆角矩形 126"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11210925" y="10086975"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="9839325" y="11658600"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6565,6 +7619,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>ppdc</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6583,15 +7638,15 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="128" name="圆角矩形 127"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11210925" y="10829925"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="9839325" y="12515850"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6625,6 +7680,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>profiles</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6643,15 +7699,15 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="129" name="圆角矩形 128"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11220450" y="11563350"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="9848850" y="13363575"/>
+          <a:ext cx="1076325" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6685,6 +7741,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>templates</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6703,15 +7760,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="130" name="流程图: 文档 129"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12706350" y="2771776"/>
-          <a:ext cx="1419225" cy="495300"/>
+          <a:off x="11163300" y="3200400"/>
+          <a:ext cx="1247775" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -6752,6 +7809,11 @@
             </a:rPr>
             <a:t>sample.drv</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -6786,15 +7848,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="131" name="流程图: 文档 130"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12715874" y="3552824"/>
-          <a:ext cx="6772276" cy="581026"/>
+          <a:off x="11172190" y="4095115"/>
+          <a:ext cx="5915660" cy="667385"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -6867,6 +7929,11 @@
             </a:rPr>
             <a:t>custom.drv      laserjet-pjl.drv    r300-basic.drv</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -6909,15 +7976,15 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="132" name="流程图: 文档 131"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12715875" y="4343398"/>
-          <a:ext cx="7620000" cy="3743327"/>
+          <a:off x="11172825" y="4999990"/>
+          <a:ext cx="6677025" cy="4344035"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -6974,6 +8041,11 @@
             </a:rPr>
             <a:t>color.jpg                                get-subscriptions.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7001,6 +8073,11 @@
             </a:rPr>
             <a:t>create-job-sheets.test                   identify-printer-display.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7028,6 +8105,11 @@
             </a:rPr>
             <a:t>create-job.test                          identify-printer.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7055,6 +8137,11 @@
             </a:rPr>
             <a:t>cups-create-local-printer.test           ipp-2.0.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7082,6 +8169,11 @@
             </a:rPr>
             <a:t>document-a4.ps                           ipp-2.2.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7109,6 +8201,11 @@
             </a:rPr>
             <a:t>document-letter.ps                       ipp-everywhere.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7136,6 +8233,11 @@
             </a:rPr>
             <a:t>get-completed-jobs.test                  onepage-a4.ps</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7163,6 +8265,11 @@
             </a:rPr>
             <a:t>get-job-attributes.test                  onepage-letter.ps</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7190,6 +8297,11 @@
             </a:rPr>
             <a:t>get-job-template-attributes.test         print-job-deflate.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7217,6 +8329,11 @@
             </a:rPr>
             <a:t>get-notifications.test                   print-job-hold.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7244,6 +8361,11 @@
             </a:rPr>
             <a:t>get-ppd.test                             print-job-manual.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7271,6 +8393,11 @@
             </a:rPr>
             <a:t>get-ppds-language.test                   print-job-password.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7298,6 +8425,11 @@
             </a:rPr>
             <a:t>get-ppds-make.test                       print-uri.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7325,6 +8457,11 @@
             </a:rPr>
             <a:t>get-ppds-psversion.test                  testfile.jpg</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7352,6 +8489,11 @@
             </a:rPr>
             <a:t>get-printer-attributes-suite.test        testfile.pdf</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7379,6 +8521,11 @@
             </a:rPr>
             <a:t>get-printer-description-attributes.test  testfile.txt</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7390,6 +8537,11 @@
             </a:rPr>
             <a:t>get-printers-printer-id.test             validate-job.test</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7424,15 +8576,15 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="133" name="流程图: 文档 132"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12687300" y="8696325"/>
-          <a:ext cx="4076700" cy="390525"/>
+          <a:off x="11144250" y="10067925"/>
+          <a:ext cx="3562350" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -7473,6 +8625,11 @@
             </a:rPr>
             <a:t>mime.convs  mime.types</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7507,15 +8664,15 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="134" name="流程图: 文档 133"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12677775" y="10191751"/>
-          <a:ext cx="4076700" cy="438150"/>
+          <a:off x="11134725" y="11791950"/>
+          <a:ext cx="3562350" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -7556,6 +8713,11 @@
             </a:rPr>
             <a:t>epson.h  font.defs  hp.h  label.h  media.defs  raster.defs</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7582,15 +8744,15 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="135" name="流程图: 文档 134"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12630150" y="11553825"/>
-          <a:ext cx="7620000" cy="3543300"/>
+          <a:off x="11087100" y="13354050"/>
+          <a:ext cx="6677025" cy="4114800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -7647,6 +8809,11 @@
             </a:rPr>
             <a:t>add-printer.tmpl        modify-class.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7674,6 +8841,11 @@
             </a:rPr>
             <a:t>choose-device.tmpl      norestart.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7701,6 +8873,11 @@
             </a:rPr>
             <a:t>choose-model.tmpl       option-conflict.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7728,6 +8905,11 @@
             </a:rPr>
             <a:t>choose-uri.tmpl         option-pickmany.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7755,6 +8937,11 @@
             </a:rPr>
             <a:t>class-confirm.tmpl      option-trailer.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7782,6 +8969,11 @@
             </a:rPr>
             <a:t>class-jobs-header.tmpl  printer-accept.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7809,6 +9001,11 @@
             </a:rPr>
             <a:t>class.tmpl              printer-cancel-jobs.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7836,6 +9033,11 @@
             </a:rPr>
             <a:t>classes.tmpl            printer-confirm.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7879,6 +9081,11 @@
             </a:rPr>
             <a:t>edit-config.tmpl        printer-jobs-header.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7922,6 +9129,11 @@
             </a:rPr>
             <a:t> printer-start.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -7965,6 +9177,11 @@
             </a:rPr>
             <a:t>help-header.tmpl        printers-header.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -8008,6 +9225,11 @@
             </a:rPr>
             <a:t>job-cancel.tmpl       job-hold.tmpl           search.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -8035,6 +9257,11 @@
             </a:rPr>
             <a:t>job-moved.tmpl          set-printer-options-trailer.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -8078,6 +9305,11 @@
             </a:rPr>
             <a:t>jobs-header.tmpl        users.tmpl</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -8144,7 +9376,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="136" name="肘形连接符 135"/>
         <xdr:cNvCxnSpPr>
@@ -8154,8 +9386,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353175" y="2252663"/>
-          <a:ext cx="4886325" cy="28575"/>
+          <a:off x="5581650" y="2595245"/>
+          <a:ext cx="4286250" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8194,7 +9426,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="139" name="肘形连接符 138"/>
         <xdr:cNvCxnSpPr>
@@ -8204,8 +9436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353175" y="2252663"/>
-          <a:ext cx="4876800" cy="790575"/>
+          <a:off x="5581650" y="2595245"/>
+          <a:ext cx="4276725" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8244,7 +9476,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="142" name="肘形连接符 141"/>
         <xdr:cNvCxnSpPr>
@@ -8254,8 +9486,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353175" y="2252663"/>
-          <a:ext cx="4895850" cy="1571625"/>
+          <a:off x="5581650" y="2595245"/>
+          <a:ext cx="4295775" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8294,7 +9526,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="145" name="肘形连接符 144"/>
         <xdr:cNvCxnSpPr>
@@ -8304,8 +9536,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353175" y="2252663"/>
-          <a:ext cx="4895850" cy="2305050"/>
+          <a:off x="5581650" y="2595245"/>
+          <a:ext cx="4295775" cy="2676525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8344,7 +9576,7 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="148" name="肘形连接符 147"/>
         <xdr:cNvCxnSpPr>
@@ -8354,8 +9586,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353175" y="2252663"/>
-          <a:ext cx="4876800" cy="6648450"/>
+          <a:off x="5581650" y="2595245"/>
+          <a:ext cx="4276725" cy="7705725"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8394,7 +9626,7 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="151" name="肘形连接符 150"/>
         <xdr:cNvCxnSpPr>
@@ -8404,8 +9636,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353175" y="2252663"/>
-          <a:ext cx="4867275" cy="7410450"/>
+          <a:off x="5581650" y="2595245"/>
+          <a:ext cx="4267200" cy="8582025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8444,7 +9676,7 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="154" name="肘形连接符 153"/>
         <xdr:cNvCxnSpPr>
@@ -8454,8 +9686,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353175" y="2252663"/>
-          <a:ext cx="4857750" cy="8115300"/>
+          <a:off x="5581650" y="2595245"/>
+          <a:ext cx="4257675" cy="9401175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8494,7 +9726,7 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="157" name="肘形连接符 156"/>
         <xdr:cNvCxnSpPr>
@@ -8504,8 +9736,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353175" y="2252663"/>
-          <a:ext cx="4857750" cy="8858250"/>
+          <a:off x="5581650" y="2595245"/>
+          <a:ext cx="4257675" cy="10258425"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8544,7 +9776,7 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="161" name="肘形连接符 160"/>
         <xdr:cNvCxnSpPr>
@@ -8554,8 +9786,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353175" y="2252663"/>
-          <a:ext cx="4867275" cy="9591675"/>
+          <a:off x="5581650" y="2595245"/>
+          <a:ext cx="4267200" cy="11106150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8594,15 +9826,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="164" name="流程图: 文档 163"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8562975" y="533400"/>
-          <a:ext cx="6772276" cy="581026"/>
+          <a:off x="7534275" y="590550"/>
+          <a:ext cx="5915025" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -8683,6 +9915,11 @@
             </a:rPr>
             <a:t>ru</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -8717,15 +9954,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="165" name="流程图: 文档 164"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6581775" y="2733675"/>
-          <a:ext cx="1905000" cy="666750"/>
+          <a:off x="5810250" y="3162300"/>
+          <a:ext cx="1647825" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -8766,6 +10003,11 @@
             </a:rPr>
             <a:t>ca  cs  de  en  es  fr  it  ja  pt_BR  ru  zh_CN</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -8792,15 +10034,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="166" name="流程图: 文档 165"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="3619500"/>
-          <a:ext cx="1809750" cy="495300"/>
+          <a:off x="5800725" y="4191000"/>
+          <a:ext cx="1552575" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -8855,7 +10097,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -8869,15 +10111,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="圆角矩形 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904875" y="1809750"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="819150" y="2095500"/>
+          <a:ext cx="1076325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8930,15 +10172,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="圆角矩形 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828925" y="1800225"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="2486025" y="2057400"/>
+          <a:ext cx="1114425" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8991,15 +10233,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="圆角矩形 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="1743075"/>
-          <a:ext cx="1247775" cy="676275"/>
+          <a:off x="4286250" y="2000250"/>
+          <a:ext cx="1114425" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9033,6 +10275,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>include</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -9059,7 +10302,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="肘形连接符 33"/>
         <xdr:cNvCxnSpPr>
@@ -9068,9 +10311,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2152650" y="2081213"/>
-          <a:ext cx="676275" cy="9525"/>
+        <a:xfrm flipV="true">
+          <a:off x="1895475" y="2395220"/>
+          <a:ext cx="590550" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9109,7 +10352,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>103188</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="肘形连接符 34"/>
         <xdr:cNvCxnSpPr>
@@ -9119,8 +10362,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4076700" y="2081213"/>
-          <a:ext cx="809625" cy="12700"/>
+          <a:off x="3600450" y="2395220"/>
+          <a:ext cx="685800" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9159,15 +10402,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="圆角矩形 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6819900" y="1809750"/>
-          <a:ext cx="1247775" cy="561975"/>
+          <a:off x="6000750" y="2095500"/>
+          <a:ext cx="1123950" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9201,6 +10444,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
             <a:t>cups</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9219,7 +10463,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="43" name="肘形连接符 42"/>
         <xdr:cNvCxnSpPr>
@@ -9229,8 +10473,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6134100" y="2081213"/>
-          <a:ext cx="685800" cy="9525"/>
+          <a:off x="5400675" y="2395220"/>
+          <a:ext cx="600075" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9269,15 +10513,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="流程图: 文档 44"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8258175" y="1343025"/>
-          <a:ext cx="1762126" cy="1895475"/>
+          <a:off x="7229475" y="1543050"/>
+          <a:ext cx="1590675" cy="2181225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -9318,6 +10562,11 @@
             </a:rPr>
             <a:t>adminutil.h  cups.h  </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -9345,6 +10594,11 @@
             </a:rPr>
             <a:t>array.h      dir.h   ipp.h   pwg.h     transcode.h</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -9356,6 +10610,11 @@
             </a:rPr>
             <a:t>backend.h    file.h  language.h  raster.h  versioning.h</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -9415,7 +10674,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -9450,7 +10709,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -9490,7 +10749,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -9514,9 +10773,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -9540,7 +10799,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -9593,7 +10852,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -9618,25 +10877,19 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -9644,19 +10897,19 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="8" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
@@ -9664,28 +10917,155 @@
       <selection activeCell="P79" sqref="P79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="69" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="8" scale="69" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="31.7142857142857" customWidth="true"/>
+    <col min="2" max="2" width="121.571428571429" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="40" customHeight="true" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="24.75" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="20.25" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="true" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="29" customHeight="true" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="39" customHeight="true" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D4:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="77.2857142857143" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:4">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="409" customHeight="true" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>